--- a/assets/grades.xlsx
+++ b/assets/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/web-template/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33E7C1-E423-4F46-8E94-459A495D53D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD4466-E79E-E640-9E6E-CBBAE6D27A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{4582E4CD-5465-DD4C-9E97-41DC8F65BFAB}"/>
+    <workbookView xWindow="30040" yWindow="640" windowWidth="31240" windowHeight="18640" xr2:uid="{4582E4CD-5465-DD4C-9E97-41DC8F65BFAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,10 @@
     <t>Final Project</t>
   </si>
   <si>
-    <t>In-Class</t>
+    <t>Participation</t>
   </si>
   <si>
-    <t>Quizzes</t>
+    <t>Mid-semester Project</t>
   </si>
 </sst>
 </file>
@@ -211,6 +211,90 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5509648203845637E-2"/>
+                  <c:y val="2.8263308066273987E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A487-F644-88C2-8C244AA3AD27}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17347296777776203"/>
+                  <c:y val="-1.3753672581973124E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A487-F644-88C2-8C244AA3AD27}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.6376195464837281E-2"/>
+                  <c:y val="2.8652233012086553E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A487-F644-88C2-8C244AA3AD27}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3531986076847694E-2"/>
+                  <c:y val="7.7492496452297527E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A487-F644-88C2-8C244AA3AD27}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -227,7 +311,7 @@
                 <a:pPr>
                   <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -271,13 +355,13 @@
                   <c:v>Homeworks</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Quizzes</c:v>
+                  <c:v>Mid-semester Project</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>In-Class</c:v>
+                  <c:v>Final Project</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Final Project</c:v>
+                  <c:v>Participation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -289,16 +373,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,15 +1020,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1160,12 +1244,12 @@
   <dimension ref="B4:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -1181,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
@@ -1189,23 +1273,23 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
